--- a/stage_documents/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/stage_documents/DTT-Assessment-Hour-Log_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaka1\GitHub\DTT Stage\Stage assesment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\stage_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD471076-BC67-4289-B6C2-8B1E1E482CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2373484-02D0-4BA1-9D52-3E0A79D69250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3780" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Subject</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>Bonus</t>
-  </si>
-  <si>
-    <t>Example 2</t>
-  </si>
-  <si>
-    <t>Had some issues with…</t>
-  </si>
-  <si>
-    <t>Example 3</t>
-  </si>
-  <si>
-    <t>Implemented bonus feature….</t>
   </si>
   <si>
     <t>x</t>
@@ -93,6 +81,39 @@
   </si>
   <si>
     <t>Installing XAMPP, following README file instructions and setup MySQL.</t>
+  </si>
+  <si>
+    <t>Git setup</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>Setup the github, added the folders like this one to a separate folder called "stage_documents" for seperation</t>
+  </si>
+  <si>
+    <t>0,75</t>
+  </si>
+  <si>
+    <t>SQL tabels setup (User Story 1)</t>
+  </si>
+  <si>
+    <t>SQL employee tabel setup</t>
+  </si>
+  <si>
+    <t>0,20</t>
+  </si>
+  <si>
+    <t>Addition of an employee tabel for the bonus assignment</t>
+  </si>
+  <si>
+    <t>Setting up tables in the SQL database, due to a mismatch between MySQL and (this version of) MariaDB the generated SQL didn't run for the EER design, after research it appears (this version of) MariaDB doesn't support the VISIBLE modifier source: https://stackoverflow.com/a/72471770 . The Troubleshooting took around half the total time.</t>
+  </si>
+  <si>
+    <t>Self study php oop (User Story 2)</t>
+  </si>
+  <si>
+    <t>Studying the OOP ways for PHP to populate BaseController.php https://www.w3schools.com/php/</t>
   </si>
 </sst>
 </file>
@@ -323,12 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -361,6 +376,12 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,311 +829,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45313</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45314</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="E5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45314</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45314</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45315</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="14">
+        <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9">
-        <v>45313</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>44562</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
-        <v>44562</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="16">
-        <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>3</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="6"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="6"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/stage_documents/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/stage_documents/DTT-Assessment-Hour-Log_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\stage_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2373484-02D0-4BA1-9D52-3E0A79D69250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143397EE-2D15-4D4B-88DB-66BF505BD49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="3780" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Subject</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Setup</t>
-  </si>
-  <si>
-    <t>0,5</t>
   </si>
   <si>
     <r>
@@ -86,24 +83,15 @@
     <t>Git setup</t>
   </si>
   <si>
-    <t>0,25</t>
-  </si>
-  <si>
     <t>Setup the github, added the folders like this one to a separate folder called "stage_documents" for seperation</t>
   </si>
   <si>
-    <t>0,75</t>
-  </si>
-  <si>
     <t>SQL tabels setup (User Story 1)</t>
   </si>
   <si>
     <t>SQL employee tabel setup</t>
   </si>
   <si>
-    <t>0,20</t>
-  </si>
-  <si>
     <t>Addition of an employee tabel for the bonus assignment</t>
   </si>
   <si>
@@ -114,6 +102,54 @@
   </si>
   <si>
     <t>Studying the OOP ways for PHP to populate BaseController.php https://www.w3schools.com/php/</t>
+  </si>
+  <si>
+    <t>Creation of getAll and getByID (User Story 2)</t>
+  </si>
+  <si>
+    <t>Had some trouble figuring out how to get the results of a query with the given library and also figured out how to defend against sql injection. Sources: https://www.w3schools.com/php/php_mysql_prepared_statements.asp AND https://www.w3schools.com/php/php_mysql_select.asp</t>
+  </si>
+  <si>
+    <t>Creation of create (User Story 2)</t>
+  </si>
+  <si>
+    <t>Created the endpoint for creating a faclility and its tags</t>
+  </si>
+  <si>
+    <t>Update of getAll and getByID (User Story 2)</t>
+  </si>
+  <si>
+    <t>Updated the get endpoints to match with the requirement to also provide tags and location in the response</t>
+  </si>
+  <si>
+    <t>Creation of update (User Story 2)</t>
+  </si>
+  <si>
+    <t>Creation of delete (User Story 2)</t>
+  </si>
+  <si>
+    <t>Created the endpoint for deleting a facility and its tags</t>
+  </si>
+  <si>
+    <t>Created the endpoint for updating a faclility and its tags, the database relations have been changed to CASCADE to make it easier to remove and (re)add the tags. I chose to take this approach in stead of getting the tags and filtering which ones are already connected to the facility is for simplicity sake. Had I had more time on my hands I could have attempted to try this.</t>
+  </si>
+  <si>
+    <t>Creation of search function (User Story 3)</t>
+  </si>
+  <si>
+    <t>Created the endpoint for searching on certain query parameters</t>
+  </si>
+  <si>
+    <t>Cleanup Code</t>
+  </si>
+  <si>
+    <t>Cleaned up duplicate code and added comments here and there</t>
+  </si>
+  <si>
+    <t>Report/Documentation</t>
+  </si>
+  <si>
+    <t>Writing of API Documentation in Postman and export of SQL dump</t>
   </si>
 </sst>
 </file>
@@ -816,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -838,7 +874,7 @@
     </row>
     <row r="2" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -868,30 +904,30 @@
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="B4" s="6">
+        <v>0.5</v>
       </c>
       <c r="C4" s="7">
         <v>45313</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.25</v>
       </c>
       <c r="C5" s="7">
         <v>45314</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>5</v>
@@ -900,32 +936,32 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.75</v>
       </c>
       <c r="C6" s="7">
         <v>45314</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.2</v>
       </c>
       <c r="C7" s="7">
         <v>45314</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>5</v>
@@ -934,81 +970,145 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2.5</v>
       </c>
       <c r="C8" s="7">
         <v>45315</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45315</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45316</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="9"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45316</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45316</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45316</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45316</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45316</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45316</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="4"/>
     </row>
@@ -1122,7 +1222,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>

--- a/stage_documents/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/stage_documents/DTT-Assessment-Hour-Log_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web_backend_test_catering_api\stage_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143397EE-2D15-4D4B-88DB-66BF505BD49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875ECA63-B299-4B83-9C62-1647061B3ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="3270" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Subject</t>
   </si>
@@ -150,6 +150,63 @@
   </si>
   <si>
     <t>Writing of API Documentation in Postman and export of SQL dump</t>
+  </si>
+  <si>
+    <t>Attempt 2 after Feedback</t>
+  </si>
+  <si>
+    <t>Feedback required fields give 2 errrors</t>
+  </si>
+  <si>
+    <t>Required fields that were not present on creation gave 2 errors, reduced that to the 1 custom and ommitted the php error.</t>
+  </si>
+  <si>
+    <t>Self study php</t>
+  </si>
+  <si>
+    <t>Time used to learn how to use PDO and how I should make models (I was stuck on thinking I needed to make models in a certain way like JPA in Java but I just needed to make a model) playlist from index 64 to 66: https://www.youtube.com/watch?v=e6yLUvpcOZo&amp;list=PLr3d3QYzkw2xabQRUpcZ_IBk9W50M9pe-&amp;index=64</t>
+  </si>
+  <si>
+    <t>New controller to comply with MVC conventions</t>
+  </si>
+  <si>
+    <t>Feedback MVC add another controller</t>
+  </si>
+  <si>
+    <t>Making of the create function in faclility model and make a base model to extend off of and have a central db reference</t>
+  </si>
+  <si>
+    <t>Feedback create models and sql out of contr</t>
+  </si>
+  <si>
+    <t>Add getAll and getById to facilityModel</t>
+  </si>
+  <si>
+    <t>Had to mess around with the SQL query to add the ID to the output and to give the tags in an array instead of comma seperated string.</t>
+  </si>
+  <si>
+    <t>Move search function to model and changing SQL query to fix tags being removed upon search</t>
+  </si>
+  <si>
+    <t>Add search to facilityModel</t>
+  </si>
+  <si>
+    <t>Add delete and improved update to model</t>
+  </si>
+  <si>
+    <t>Moved delete and update to the model and improved the update to only update the fields that are given using COALESCE. Source:  https://stackoverflow.com/questions/38294512/what-is-the-good-practice-for-updating-sql-table-partially-and-keeping-unedited</t>
+  </si>
+  <si>
+    <t>Figuring out how to fix the PUT request</t>
+  </si>
+  <si>
+    <t>So I struggled with this since there isn't a pre made superglobal for PUT body, had to change the content type to x-www-form-urlencoded to get an easy to use set of data from php://input</t>
+  </si>
+  <si>
+    <t>Finishing touches and export new DB</t>
+  </si>
+  <si>
+    <t>Checking if all feedback was processed and adding finishing touches to files like comments. Lastly export dump of DB and models and also export of Postman</t>
   </si>
 </sst>
 </file>
@@ -852,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1170,9 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -1121,74 +1180,146 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45457</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45457</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45457</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45457</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>45458</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="7">
+        <v>45458</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>45458</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45459</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>45459</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="4"/>
     </row>
@@ -1222,7 +1353,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>10.5</v>
+        <v>21.5</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
